--- a/data/trans_orig/P1420-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4222</v>
+        <v>4236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16216</v>
+        <v>16283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008234339083671854</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00404471900963944</v>
+        <v>0.00405782024240653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01553315597303559</v>
+        <v>0.01559738389515457</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>21908</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14054</v>
+        <v>14251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33186</v>
+        <v>32869</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01958384920911845</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01256357664732372</v>
+        <v>0.01273925153122316</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02966634097437161</v>
+        <v>0.02938302128686533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -784,19 +784,19 @@
         <v>30504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20871</v>
+        <v>21241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43002</v>
+        <v>42919</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01410515891020481</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00965079491210675</v>
+        <v>0.009822199354443522</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01988460610631259</v>
+        <v>0.01984595334126924</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1035339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1027719</v>
+        <v>1027652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1039713</v>
+        <v>1039699</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9917656609163281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9844668440269645</v>
+        <v>0.9844026161048454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9959552809903606</v>
+        <v>0.9959421797575935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1009</v>
@@ -834,19 +834,19 @@
         <v>1096745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1085467</v>
+        <v>1085784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1104599</v>
+        <v>1104402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9804161507908815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9703336590256283</v>
+        <v>0.9706169787131345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9874364233526761</v>
+        <v>0.9872607484687768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1979</v>
@@ -855,19 +855,19 @@
         <v>2132084</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2119586</v>
+        <v>2119669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2141717</v>
+        <v>2141347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9858948410897952</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9801153938936877</v>
+        <v>0.9801540466587307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9903492050878935</v>
+        <v>0.9901778006455564</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>12365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7064</v>
+        <v>6321</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21195</v>
+        <v>21317</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01265486621271377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007229615205656677</v>
+        <v>0.006469400270452461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02169240265002801</v>
+        <v>0.02181752826884393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -980,19 +980,19 @@
         <v>23688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15607</v>
+        <v>15140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34922</v>
+        <v>34904</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02168555862581589</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01428823451425951</v>
+        <v>0.01386025049025052</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03197050500408775</v>
+        <v>0.03195379814351331</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -1001,19 +1001,19 @@
         <v>36052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25105</v>
+        <v>25524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49550</v>
+        <v>50224</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01742169224141216</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01213145598873383</v>
+        <v>0.01233384582004703</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02394412204112943</v>
+        <v>0.02426982028273239</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>964708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>955878</v>
+        <v>955756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>970009</v>
+        <v>970752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9873451337872863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.978307597349972</v>
+        <v>0.9781824717311561</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927703847943433</v>
+        <v>0.9935305997295475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>997</v>
@@ -1051,19 +1051,19 @@
         <v>1068639</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1057405</v>
+        <v>1057423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1076720</v>
+        <v>1077187</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9783144413741841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9680294949959123</v>
+        <v>0.9680462018564865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9857117654857405</v>
+        <v>0.9861397495097495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1909</v>
@@ -1072,19 +1072,19 @@
         <v>2033348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2019850</v>
+        <v>2019176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2044295</v>
+        <v>2043876</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9825783077585878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9760558779588705</v>
+        <v>0.9757301797172676</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9878685440112662</v>
+        <v>0.9876661541799531</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>3879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9347</v>
+        <v>9589</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004382288811716176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001093180796573601</v>
+        <v>0.001078961377292994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01056024813986527</v>
+        <v>0.01083359447443374</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7094</v>
+        <v>6961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002302221162313771</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008100061808681065</v>
+        <v>0.007948000571035332</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1218,19 +1218,19 @@
         <v>5895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2025</v>
+        <v>2179</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12643</v>
+        <v>12408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003347759191921193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001149724710880627</v>
+        <v>0.001237547335473159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007180015745685743</v>
+        <v>0.007046275164648828</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>881236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>875768</v>
+        <v>875526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>884147</v>
+        <v>884160</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9956177111882838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9894397518601351</v>
+        <v>0.989166405525566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9989068192034265</v>
+        <v>0.9989210386227071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>819</v>
@@ -1268,7 +1268,7 @@
         <v>873780</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>868702</v>
+        <v>868835</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>875796</v>
@@ -1277,7 +1277,7 @@
         <v>0.9976977788376862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9918999381913187</v>
+        <v>0.9920519994289645</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1289,19 +1289,19 @@
         <v>1755016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1748268</v>
+        <v>1748503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1758886</v>
+        <v>1758732</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9966522408080788</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9928199842543143</v>
+        <v>0.9929537248353516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9988502752891194</v>
+        <v>0.998762452664527</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7852</v>
+        <v>6729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004308543769843691</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01560966753979862</v>
+        <v>0.01337627373627311</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1414,19 +1414,19 @@
         <v>8169</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3591</v>
+        <v>4061</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15094</v>
+        <v>15206</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01804406298492197</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00793201447038566</v>
+        <v>0.008970569341531193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03334042054394173</v>
+        <v>0.03358611680671737</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1435,19 +1435,19 @@
         <v>10336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5185</v>
+        <v>5227</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19114</v>
+        <v>17984</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01081495722698261</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005424990177176668</v>
+        <v>0.005469373849216555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01999828411064702</v>
+        <v>0.01881670742331186</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>500856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495171</v>
+        <v>496294</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -1473,7 +1473,7 @@
         <v>0.9956914562301563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9843903324602028</v>
+        <v>0.9866237262637273</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1485,19 +1485,19 @@
         <v>444567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>437642</v>
+        <v>437530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>449145</v>
+        <v>448675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.981955937015078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9666595794560581</v>
+        <v>0.9664138831932826</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9920679855296133</v>
+        <v>0.9910294306584688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -1506,19 +1506,19 @@
         <v>945422</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>936644</v>
+        <v>937774</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>950573</v>
+        <v>950531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9891850427730174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9800017158893526</v>
+        <v>0.9811832925766882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9945750098228233</v>
+        <v>0.9945306261507835</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>27007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17919</v>
+        <v>18178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38592</v>
+        <v>38243</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007921916431174927</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005256231801314457</v>
+        <v>0.005332174395260279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01132027772661638</v>
+        <v>0.0112176338918252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1631,19 +1631,19 @@
         <v>55781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42808</v>
+        <v>42509</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73248</v>
+        <v>71732</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01575944015795595</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01209424845263467</v>
+        <v>0.01200995191000591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02069430452411114</v>
+        <v>0.02026596211593857</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1652,19 +1652,19 @@
         <v>82788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67718</v>
+        <v>67689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103809</v>
+        <v>102659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01191419939946677</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009745450007604801</v>
+        <v>0.009741334022938546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.014939385944018</v>
+        <v>0.01477399379741085</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3382138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3370553</v>
+        <v>3370902</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3391226</v>
+        <v>3390967</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9920780835688251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9886797222733837</v>
+        <v>0.9887823661081748</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9947437681986855</v>
+        <v>0.9946678256047397</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3229</v>
@@ -1702,19 +1702,19 @@
         <v>3483730</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3466263</v>
+        <v>3467779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3496703</v>
+        <v>3497002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9842405598420441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.979305695475889</v>
+        <v>0.9797340378840615</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9879057515473653</v>
+        <v>0.9879900480899941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6396</v>
@@ -1723,19 +1723,19 @@
         <v>6865869</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6844848</v>
+        <v>6845998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6880939</v>
+        <v>6880968</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9880858006005332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.985060614055982</v>
+        <v>0.985226006202589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9902545499923953</v>
+        <v>0.9902586659770615</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>12641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6843</v>
+        <v>6486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21767</v>
+        <v>21627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01120643967702313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006066592148170511</v>
+        <v>0.005750060344106161</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01929720728347461</v>
+        <v>0.01917334813651209</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2088,19 +2088,19 @@
         <v>16825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9700</v>
+        <v>9312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27718</v>
+        <v>27009</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01335749565668734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007701107303615756</v>
+        <v>0.007392828491025428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0220058546271967</v>
+        <v>0.02144331634975764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2109,19 +2109,19 @@
         <v>29465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19645</v>
+        <v>20113</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42502</v>
+        <v>42591</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01234123335566923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008228084320578843</v>
+        <v>0.00842390041123427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01780150000038935</v>
+        <v>0.01783890327807609</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1115356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1106230</v>
+        <v>1106370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1121154</v>
+        <v>1121511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9887935603229768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9807027927165255</v>
+        <v>0.9808266518634881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9939334078518296</v>
+        <v>0.994249939655894</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1173</v>
@@ -2159,19 +2159,19 @@
         <v>1242736</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1231843</v>
+        <v>1232552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1249861</v>
+        <v>1250249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9866425043433127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9779941453728035</v>
+        <v>0.9785566836502422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9922988926963843</v>
+        <v>0.9926071715089746</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2227</v>
@@ -2180,19 +2180,19 @@
         <v>2358093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2345056</v>
+        <v>2344967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2367913</v>
+        <v>2367445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9876587666443307</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9821984999996106</v>
+        <v>0.9821610967219239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9917719156794211</v>
+        <v>0.9915760995887656</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>8321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3751</v>
+        <v>3918</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15026</v>
+        <v>15398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009155300802699391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004127062553258527</v>
+        <v>0.00431080434228318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01653349180516793</v>
+        <v>0.016943181743244</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2305,19 +2305,19 @@
         <v>14670</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7666</v>
+        <v>7548</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24804</v>
+        <v>25606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01457551956089689</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007617005259817484</v>
+        <v>0.007499553610249525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02464395920314496</v>
+        <v>0.02544159569400715</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -2326,19 +2326,19 @@
         <v>22990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14385</v>
+        <v>14141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35886</v>
+        <v>33074</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01200358361343157</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007510648540247744</v>
+        <v>0.007383086813625274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01873650500151009</v>
+        <v>0.01726831190004543</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>900504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>893799</v>
+        <v>893427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905074</v>
+        <v>904907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9908446991973006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9834665081948322</v>
+        <v>0.9830568182567553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958729374467414</v>
+        <v>0.9956891956577162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>939</v>
@@ -2376,19 +2376,19 @@
         <v>991805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>981671</v>
+        <v>980869</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>998809</v>
+        <v>998927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9854244804391031</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.975356040796855</v>
+        <v>0.9745584043059929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9923829947401825</v>
+        <v>0.9925004463897504</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1811</v>
@@ -2397,19 +2397,19 @@
         <v>1892310</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1879414</v>
+        <v>1882226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1900915</v>
+        <v>1901159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879964163865684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9812634949984903</v>
+        <v>0.9827316880999546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9924893514597523</v>
+        <v>0.9926169131863747</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>8226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2861</v>
+        <v>2926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17956</v>
+        <v>17844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009986099640709427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003473130333661075</v>
+        <v>0.003551931985678104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02179726426498411</v>
+        <v>0.02166132328199906</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2522,19 +2522,19 @@
         <v>7181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2816</v>
+        <v>2300</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15027</v>
+        <v>15503</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009313743648675961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003651643107871178</v>
+        <v>0.002983105484492194</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01948840384773772</v>
+        <v>0.02010613633128606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2543,19 +2543,19 @@
         <v>15408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7834</v>
+        <v>8316</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26495</v>
+        <v>26400</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009661030612058228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004912120069651944</v>
+        <v>0.005214197774268474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0166133417713512</v>
+        <v>0.01655346674940367</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>815533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>805803</v>
+        <v>805915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820898</v>
+        <v>820833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9900139003592906</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9782027357350155</v>
+        <v>0.9783386767180006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965268696663389</v>
+        <v>0.996448068014322</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -2593,19 +2593,19 @@
         <v>763878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756032</v>
+        <v>755556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768243</v>
+        <v>768759</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.990686256351324</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805115961522625</v>
+        <v>0.979893863668714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963483568921295</v>
+        <v>0.9970168945155079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1503</v>
@@ -2614,19 +2614,19 @@
         <v>1579410</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1568323</v>
+        <v>1568418</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1586984</v>
+        <v>1586502</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9903389693879417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9833866582286486</v>
+        <v>0.9834465332505962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9950878799303481</v>
+        <v>0.9947858022257315</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>4346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12827</v>
+        <v>11178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008576867793476949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002087519994167236</v>
+        <v>0.002083581544265953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02531484686928196</v>
+        <v>0.0220607819015341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -2739,19 +2739,19 @@
         <v>6110</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2167</v>
+        <v>2189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13491</v>
+        <v>12925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01247608847605009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004424879466083985</v>
+        <v>0.004470327641349473</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02754869838870986</v>
+        <v>0.02639441692993881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -2763,16 +2763,16 @@
         <v>5119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20373</v>
+        <v>18946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01049320840644865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005137807016072137</v>
+        <v>0.005138005781933947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02044663694072332</v>
+        <v>0.01901418043850247</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>502355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493874</v>
+        <v>495523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505643</v>
+        <v>505645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991423132206523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9746851531307195</v>
+        <v>0.9779392180984656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979124800058328</v>
+        <v>0.9979164184557341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>449</v>
@@ -2810,19 +2810,19 @@
         <v>483588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>476207</v>
+        <v>476773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>487531</v>
+        <v>487509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9875239115239499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9724513016112906</v>
+        <v>0.9736055830700612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9955751205339161</v>
+        <v>0.9955296723586504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>917</v>
@@ -2831,7 +2831,7 @@
         <v>985943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>976025</v>
+        <v>977452</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>991279</v>
@@ -2840,10 +2840,10 @@
         <v>0.9895067915935514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9795533630592768</v>
+        <v>0.9809858195614978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.994862192983928</v>
+        <v>0.9948619942180662</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>33533</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22601</v>
+        <v>23198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46745</v>
+        <v>47806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009958608786173391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006712042800437992</v>
+        <v>0.006889268707888355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01388198962756693</v>
+        <v>0.01419723154530674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -2956,19 +2956,19 @@
         <v>44785</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32433</v>
+        <v>32348</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60686</v>
+        <v>61139</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01269862999411607</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009196144395832743</v>
+        <v>0.009172136680457105</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01720725159311345</v>
+        <v>0.01733554048318871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -2977,19 +2977,19 @@
         <v>78319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62672</v>
+        <v>62752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99358</v>
+        <v>100584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01136031770319094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009090678909725255</v>
+        <v>0.009102363227703561</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0144120958937396</v>
+        <v>0.01458993212869996</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3333749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3320537</v>
+        <v>3319476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3344681</v>
+        <v>3344084</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9900413912138266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9861180103724331</v>
+        <v>0.9858027684546933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9932879571995621</v>
+        <v>0.9931107312921116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3283</v>
@@ -3027,19 +3027,19 @@
         <v>3482007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3466106</v>
+        <v>3465653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3494359</v>
+        <v>3494444</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9873013700058839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9827927484068866</v>
+        <v>0.9826644595168113</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9908038556041674</v>
+        <v>0.9908278633195429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6458</v>
@@ -3048,19 +3048,19 @@
         <v>6815756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6794717</v>
+        <v>6793491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6831403</v>
+        <v>6831323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9886396822968091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855879041062607</v>
+        <v>0.9854100678713001</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9909093210902747</v>
+        <v>0.9908976367722966</v>
       </c>
     </row>
     <row r="18">
